--- a/Backend/genealogy_assessments.xlsx
+++ b/Backend/genealogy_assessments.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,40 +441,30 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Person A</t>
+          <t>Person Name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Person B</t>
+          <t>Supervisors</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Question</t>
+          <t>Supervisees</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>User Answer (Ground Truth)</t>
+          <t>Source URL</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>LLM Answer</t>
+          <t>Timestamp</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Is LLM Correct</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Timestamp</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
@@ -483,7 +473,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>cc399a34-a463-4313-94ed-0c17f4d8b87c</t>
+          <t>e9cf0b2c-106e-465f-b52a-8641b08367ca</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -493,37 +483,97 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Claudia Wagner</t>
+          <t>ss</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>What is the supervision relationship between Lisette Espin-Noboa and Claudia Wagner?</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Claudia Wagner supervises Lisette Espin-Noboa</t>
-        </is>
-      </c>
+          <t>ss</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Not yet generated</t>
+          <t>2025-09-04T04:45:01.976Z</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Not evaluated</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-08-28T06:46:49.049Z</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
           <t>Assessment for Lisette Espin-Noboa's genealogy</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>d6678c3d-f2ff-4b95-b841-b1b65d99c87c</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Albert Einstein</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>dsas</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>dasd</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>sda</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-09-04T08:16:17.922Z</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Assessment for Albert Einstein's genealogy</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>27c800cc-48a0-4760-bfb2-b3e57e23b685</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Albert Einstein</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>sds</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>dds</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://mail.google.com/mail/u/3/#inbox/FMfcgzQcpTMQrQMqWsrPPZBdhMvFsrXs</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-09-04T08:16:42.337Z</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Assessment for Albert Einstein's genealogy</t>
         </is>
       </c>
     </row>
